--- a/UI/Game/Gage.xlsx
+++ b/UI/Game/Gage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016010\Desktop\git2016027\03後期\UI\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016008\Desktop\AGSSummer\UI\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ACFAC1-2CA8-4F1A-9BE3-F7C38AE20871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E0A748-4313-4F0D-AD25-21EC65AFA6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{0FE16109-541E-4F21-A2B9-A1C928388E07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7500" xr2:uid="{0FE16109-541E-4F21-A2B9-A1C928388E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Resource/resource/Ui/Hp.png</t>
-  </si>
-  <si>
     <t>Resource/resource/Ui/frame.png</t>
   </si>
   <si>
@@ -61,6 +58,10 @@
   </si>
   <si>
     <t>Resource/resource/Ui/Stamina.png</t>
+  </si>
+  <si>
+    <t>Resource/resource/Ui/Trion.png</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -169,7 +170,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85399DD-E361-4B0D-85B6-8B706C429E39}" name="テーブル1" displayName="テーブル1" ref="A1:F4" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{9AE96A2C-B241-4BA7-9342-547AAC1357B5}"/>
+  <autoFilter ref="A1:F4" xr:uid="{9AE96A2C-B241-4BA7-9342-547AAC1357B5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EC8B9936-B227-49CE-AF2B-EB7DF5093814}" uniqueName="funcID" name="funcID">
       <xmlColumnPr mapId="1" xpath="/root/Datas/Data/funcID" xmlDataType="string"/>
@@ -493,20 +500,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2606E63A-3A30-4E3B-92AF-87314B01297F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,15 +533,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -546,15 +553,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -566,15 +573,15 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
